--- a/results/mp/deberta/corona/confidence/210/stop-words-0.15/avg_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-0.15/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="1466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1690" uniqueCount="1466">
   <si>
     <t>anchor score</t>
   </si>
@@ -457,820 +457,820 @@
     <t>complaint</t>
   </si>
   <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>struggle</t>
+  </si>
+  <si>
+    <t>com</t>
+  </si>
+  <si>
+    <t>meals</t>
+  </si>
+  <si>
+    <t>delay</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>shock</t>
+  </si>
+  <si>
+    <t>unemployment</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>yesterday</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>delivered</t>
+  </si>
+  <si>
+    <t>entire</t>
+  </si>
+  <si>
+    <t>warns</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>details</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>exposed</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>donations</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>europe</t>
+  </si>
+  <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>complaints</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>trading</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>ac</t>
+  </si>
+  <si>
+    <t>pa</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>struggling</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>affected</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>combat</t>
+  </si>
+  <si>
+    <t>believe</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>hospitals</t>
+  </si>
+  <si>
+    <t>law</t>
+  </si>
+  <si>
+    <t>listen</t>
+  </si>
+  <si>
+    <t>impacts</t>
+  </si>
+  <si>
+    <t>inflated</t>
+  </si>
+  <si>
+    <t>residents</t>
+  </si>
+  <si>
+    <t>looks</t>
+  </si>
+  <si>
+    <t>offering</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>ag</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>insights</t>
+  </si>
+  <si>
+    <t>farm</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>limited</t>
+  </si>
+  <si>
+    <t>cause</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>sentiment</t>
+  </si>
+  <si>
+    <t>etc</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>stimulus</t>
+  </si>
+  <si>
+    <t>side</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>pre</t>
+  </si>
+  <si>
+    <t>rising</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>epidemic</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>cough</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>putting</t>
+  </si>
+  <si>
+    <t>countries</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>families</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>italy</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>eco</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>worried</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>woman</t>
+  </si>
+  <si>
+    <t>worker</t>
+  </si>
+  <si>
+    <t>coming</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>remember</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>retailers</t>
+  </si>
+  <si>
+    <t>place</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>meat</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>latest</t>
+  </si>
+  <si>
+    <t>wash</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>banks</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>gloves</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>companies</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>says</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>products</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>amid</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>appreciated</t>
+  </si>
+  <si>
+    <t>bless</t>
+  </si>
+  <si>
+    <t>bonus</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>winning</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>smile</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>grateful</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>appreciation</t>
+  </si>
+  <si>
+    <t>surely</t>
+  </si>
+  <si>
+    <t>popular</t>
+  </si>
+  <si>
+    <t>safely</t>
+  </si>
+  <si>
+    <t>honest</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>cute</t>
+  </si>
+  <si>
+    <t>innovation</t>
+  </si>
+  <si>
+    <t>useful</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>safer</t>
+  </si>
+  <si>
+    <t>thankful</t>
+  </si>
+  <si>
+    <t>respect</t>
+  </si>
+  <si>
+    <t>encourage</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>valuable</t>
+  </si>
+  <si>
+    <t>luxury</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>helps</t>
+  </si>
+  <si>
+    <t>opportunity</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>definitely</t>
+  </si>
+  <si>
+    <t>episode</t>
+  </si>
+  <si>
+    <t>partners</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>benefits</t>
+  </si>
+  <si>
+    <t>highlight</t>
+  </si>
+  <si>
+    <t>hilarious</t>
+  </si>
+  <si>
+    <t>updated</t>
+  </si>
+  <si>
+    <t>cool</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>gold</t>
-  </si>
-  <si>
-    <t>struggle</t>
-  </si>
-  <si>
-    <t>com</t>
-  </si>
-  <si>
-    <t>meals</t>
-  </si>
-  <si>
-    <t>delay</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>shock</t>
-  </si>
-  <si>
-    <t>unemployment</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>yesterday</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>delivered</t>
-  </si>
-  <si>
-    <t>entire</t>
-  </si>
-  <si>
-    <t>warns</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>details</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>exposed</t>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>affordable</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>music</t>
+  </si>
+  <si>
+    <t>wise</t>
+  </si>
+  <si>
+    <t>brave</t>
+  </si>
+  <si>
+    <t>encouraging</t>
+  </si>
+  <si>
+    <t>effective</t>
+  </si>
+  <si>
+    <t>resource</t>
+  </si>
+  <si>
+    <t>puzzle</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>supporting</t>
+  </si>
+  <si>
+    <t>homemade</t>
+  </si>
+  <si>
+    <t>tool</t>
+  </si>
+  <si>
+    <t>instant</t>
+  </si>
+  <si>
+    <t>smart</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>proud</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>trust</t>
+  </si>
+  <si>
+    <t>glad</t>
   </si>
   <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>donations</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>europe</t>
-  </si>
-  <si>
-    <t>app</t>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>complaints</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>trading</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>ac</t>
-  </si>
-  <si>
-    <t>pa</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>affected</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>cc</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>combat</t>
-  </si>
-  <si>
-    <t>believe</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>hospitals</t>
-  </si>
-  <si>
-    <t>law</t>
-  </si>
-  <si>
-    <t>listen</t>
-  </si>
-  <si>
-    <t>impacts</t>
-  </si>
-  <si>
-    <t>inflated</t>
-  </si>
-  <si>
-    <t>residents</t>
-  </si>
-  <si>
-    <t>looks</t>
-  </si>
-  <si>
-    <t>offering</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>ag</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>insights</t>
-  </si>
-  <si>
-    <t>farm</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>limited</t>
-  </si>
-  <si>
-    <t>cause</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>sentiment</t>
-  </si>
-  <si>
-    <t>etc</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>stimulus</t>
-  </si>
-  <si>
-    <t>side</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>pre</t>
-  </si>
-  <si>
-    <t>rising</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>epidemic</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>cough</t>
-  </si>
-  <si>
-    <t>fast</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>putting</t>
-  </si>
-  <si>
-    <t>countries</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>families</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>italy</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>eco</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>worried</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>woman</t>
-  </si>
-  <si>
-    <t>worker</t>
-  </si>
-  <si>
-    <t>coming</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>rest</t>
-  </si>
-  <si>
-    <t>remember</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>retailers</t>
-  </si>
-  <si>
-    <t>place</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>meat</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>latest</t>
-  </si>
-  <si>
-    <t>wash</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>banks</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>gloves</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>companies</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>says</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>products</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>amid</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>appreciated</t>
-  </si>
-  <si>
-    <t>bless</t>
-  </si>
-  <si>
-    <t>bonus</t>
-  </si>
-  <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>winning</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>smile</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>grateful</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>appreciation</t>
-  </si>
-  <si>
-    <t>surely</t>
-  </si>
-  <si>
-    <t>popular</t>
-  </si>
-  <si>
-    <t>safely</t>
-  </si>
-  <si>
-    <t>honest</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>cute</t>
-  </si>
-  <si>
-    <t>innovation</t>
-  </si>
-  <si>
-    <t>useful</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>safer</t>
-  </si>
-  <si>
-    <t>thankful</t>
-  </si>
-  <si>
-    <t>respect</t>
-  </si>
-  <si>
-    <t>encourage</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>birthday</t>
-  </si>
-  <si>
-    <t>valuable</t>
-  </si>
-  <si>
-    <t>luxury</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>helps</t>
-  </si>
-  <si>
-    <t>opportunity</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>definitely</t>
-  </si>
-  <si>
-    <t>episode</t>
-  </si>
-  <si>
-    <t>partners</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>benefits</t>
-  </si>
-  <si>
-    <t>highlight</t>
-  </si>
-  <si>
-    <t>hilarious</t>
-  </si>
-  <si>
-    <t>updated</t>
-  </si>
-  <si>
-    <t>cool</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>affordable</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>music</t>
-  </si>
-  <si>
-    <t>wise</t>
-  </si>
-  <si>
-    <t>brave</t>
-  </si>
-  <si>
-    <t>encouraging</t>
-  </si>
-  <si>
-    <t>effective</t>
-  </si>
-  <si>
-    <t>resource</t>
-  </si>
-  <si>
-    <t>puzzle</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>supporting</t>
-  </si>
-  <si>
-    <t>homemade</t>
-  </si>
-  <si>
-    <t>tool</t>
-  </si>
-  <si>
-    <t>instant</t>
-  </si>
-  <si>
-    <t>smart</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>proud</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>trust</t>
-  </si>
-  <si>
-    <t>glad</t>
   </si>
   <si>
     <t>funny</t>
@@ -4777,10 +4777,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="J1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -4909,7 +4909,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -4959,7 +4959,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -5009,7 +5009,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -5059,7 +5059,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -5159,7 +5159,7 @@
         <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -5209,7 +5209,7 @@
         <v>9</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -5259,7 +5259,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -5309,7 +5309,7 @@
         <v>3</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K12">
         <v>0.9615384615384616</v>
@@ -5409,7 +5409,7 @@
         <v>4</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="K14">
         <v>0.9444444444444444</v>
@@ -5459,7 +5459,7 @@
         <v>7</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K15">
         <v>0.9230769230769231</v>
@@ -5609,7 +5609,7 @@
         <v>3</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="K18">
         <v>0.9090909090909091</v>
@@ -5659,7 +5659,7 @@
         <v>5</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="K19">
         <v>0.8983050847457628</v>
@@ -5809,7 +5809,7 @@
         <v>1</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="K22">
         <v>0.875</v>
@@ -5859,7 +5859,7 @@
         <v>2</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="K23">
         <v>0.875</v>
@@ -6009,7 +6009,7 @@
         <v>6</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="K26">
         <v>0.8571428571428571</v>
@@ -6109,7 +6109,7 @@
         <v>4</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="K28">
         <v>0.8461538461538461</v>
@@ -6159,7 +6159,7 @@
         <v>4</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K29">
         <v>0.84251968503937</v>
@@ -6209,7 +6209,7 @@
         <v>4</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="K30">
         <v>0.8333333333333334</v>
@@ -6259,7 +6259,7 @@
         <v>5</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="K31">
         <v>0.8333333333333334</v>
@@ -6309,7 +6309,7 @@
         <v>8</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="K32">
         <v>0.8333333333333334</v>
@@ -6359,7 +6359,7 @@
         <v>4</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="K33">
         <v>0.8333333333333334</v>
@@ -6459,7 +6459,7 @@
         <v>2</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K35">
         <v>0.8220338983050848</v>
@@ -6509,7 +6509,7 @@
         <v>2</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="K36">
         <v>0.8181818181818182</v>
@@ -6559,7 +6559,7 @@
         <v>2</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K37">
         <v>0.8181818181818182</v>
@@ -6659,7 +6659,7 @@
         <v>2</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K39">
         <v>0.8</v>
@@ -6759,7 +6759,7 @@
         <v>4</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="K41">
         <v>0.8</v>
@@ -6809,7 +6809,7 @@
         <v>9</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="K42">
         <v>0.7777777777777778</v>
@@ -6859,7 +6859,7 @@
         <v>7</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="K43">
         <v>0.75</v>
@@ -6909,7 +6909,7 @@
         <v>5</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="K44">
         <v>0.75</v>
@@ -6959,7 +6959,7 @@
         <v>5</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K45">
         <v>0.75</v>
@@ -7009,7 +7009,7 @@
         <v>5</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="K46">
         <v>0.746031746031746</v>
@@ -7059,7 +7059,7 @@
         <v>5</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K47">
         <v>0.7341772151898734</v>
@@ -7159,7 +7159,7 @@
         <v>14</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="K49">
         <v>0.7272727272727273</v>
@@ -7209,7 +7209,7 @@
         <v>6</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K50">
         <v>0.7192982456140351</v>
@@ -7259,7 +7259,7 @@
         <v>15</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="K51">
         <v>0.7142857142857143</v>
@@ -7309,7 +7309,7 @@
         <v>6</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="K52">
         <v>0.7142857142857143</v>
@@ -7359,7 +7359,7 @@
         <v>3</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="K53">
         <v>0.7142857142857143</v>
@@ -7459,7 +7459,7 @@
         <v>3</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="K55">
         <v>0.7</v>
@@ -7509,7 +7509,7 @@
         <v>3</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="K56">
         <v>0.6923076923076923</v>
@@ -7559,7 +7559,7 @@
         <v>6</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="K57">
         <v>0.6875</v>
@@ -7609,7 +7609,7 @@
         <v>3</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K58">
         <v>0.6785714285714286</v>
@@ -7709,28 +7709,28 @@
         <v>3</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="K60">
-        <v>0.670995670995671</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L60">
-        <v>155</v>
+        <v>4</v>
       </c>
       <c r="M60">
-        <v>163</v>
+        <v>5</v>
       </c>
       <c r="N60">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="O60">
-        <v>0.05000000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="P60" t="b">
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>76</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -7759,28 +7759,28 @@
         <v>3</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>45</v>
+        <v>385</v>
       </c>
       <c r="K61">
         <v>0.6666666666666666</v>
       </c>
       <c r="L61">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M61">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N61">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="O61">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="P61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:17">
@@ -7809,7 +7809,7 @@
         <v>6</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K62">
         <v>0.6666666666666666</v>
@@ -7859,16 +7859,16 @@
         <v>3</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K63">
         <v>0.6666666666666666</v>
       </c>
       <c r="L63">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M63">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -7880,7 +7880,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:17">
@@ -7909,28 +7909,28 @@
         <v>10</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>389</v>
+        <v>59</v>
       </c>
       <c r="K64">
         <v>0.6666666666666666</v>
       </c>
       <c r="L64">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M64">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="P64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:17">
@@ -7959,28 +7959,28 @@
         <v>58</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="K65">
         <v>0.6666666666666666</v>
       </c>
       <c r="L65">
+        <v>12</v>
+      </c>
+      <c r="M65">
+        <v>13</v>
+      </c>
+      <c r="N65">
+        <v>0.92</v>
+      </c>
+      <c r="O65">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P65" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q65">
         <v>6</v>
-      </c>
-      <c r="M65">
-        <v>7</v>
-      </c>
-      <c r="N65">
-        <v>0.86</v>
-      </c>
-      <c r="O65">
-        <v>0.14</v>
-      </c>
-      <c r="P65" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q65">
-        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:17">
@@ -8009,28 +8009,28 @@
         <v>7</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>109</v>
+        <v>388</v>
       </c>
       <c r="K66">
         <v>0.6666666666666666</v>
       </c>
       <c r="L66">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M66">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N66">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O66">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:17">
@@ -8059,16 +8059,16 @@
         <v>15</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K67">
         <v>0.6666666666666666</v>
       </c>
       <c r="L67">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="M67">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -8080,7 +8080,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:17">
@@ -8109,7 +8109,7 @@
         <v>15</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>391</v>
+        <v>51</v>
       </c>
       <c r="K68">
         <v>0.6666666666666666</v>
@@ -8118,16 +8118,16 @@
         <v>10</v>
       </c>
       <c r="M68">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N68">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="O68">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="P68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -8159,28 +8159,28 @@
         <v>19</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="K69">
         <v>0.6666666666666666</v>
       </c>
       <c r="L69">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M69">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="N69">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="O69">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="P69" t="b">
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:17">
@@ -8209,7 +8209,7 @@
         <v>8</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>44</v>
+        <v>390</v>
       </c>
       <c r="K70">
         <v>0.6666666666666666</v>
@@ -8218,16 +8218,16 @@
         <v>4</v>
       </c>
       <c r="M70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N70">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="O70">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="P70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -8259,7 +8259,7 @@
         <v>4</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K71">
         <v>0.6666666666666666</v>
@@ -8309,16 +8309,16 @@
         <v>4</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K72">
         <v>0.6666666666666666</v>
       </c>
       <c r="L72">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M72">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -8330,7 +8330,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:17">
@@ -8359,16 +8359,16 @@
         <v>4</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K73">
         <v>0.6666666666666666</v>
       </c>
       <c r="L73">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M73">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -8380,7 +8380,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:17">
@@ -8409,28 +8409,28 @@
         <v>4</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>395</v>
+        <v>163</v>
       </c>
       <c r="K74">
-        <v>0.6666666666666666</v>
+        <v>0.6601941747572816</v>
       </c>
       <c r="L74">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="M74">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="N74">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O74">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q74">
-        <v>2</v>
+        <v>35</v>
       </c>
     </row>
     <row r="75" spans="1:17">
@@ -8459,28 +8459,28 @@
         <v>4</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>164</v>
+        <v>394</v>
       </c>
       <c r="K75">
-        <v>0.6601941747572816</v>
+        <v>0.6485355648535565</v>
       </c>
       <c r="L75">
-        <v>68</v>
+        <v>155</v>
       </c>
       <c r="M75">
-        <v>71</v>
+        <v>155</v>
       </c>
       <c r="N75">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O75">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q75">
-        <v>35</v>
+        <v>84</v>
       </c>
     </row>
     <row r="76" spans="1:17">
@@ -8509,7 +8509,7 @@
         <v>4</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="K76">
         <v>0.6428571428571429</v>
@@ -8609,7 +8609,7 @@
         <v>13</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K78">
         <v>0.6363636363636364</v>
@@ -8659,7 +8659,7 @@
         <v>9</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K79">
         <v>0.6296296296296297</v>
@@ -8709,7 +8709,7 @@
         <v>28</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K80">
         <v>0.625</v>
@@ -8759,7 +8759,7 @@
         <v>5</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="K81">
         <v>0.625</v>
@@ -8809,7 +8809,7 @@
         <v>5</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K82">
         <v>0.625</v>
@@ -8959,7 +8959,7 @@
         <v>5</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="K85">
         <v>0.6</v>
@@ -9059,7 +9059,7 @@
         <v>5</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K87">
         <v>0.6</v>
@@ -9109,7 +9109,7 @@
         <v>5</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K88">
         <v>0.6</v>
@@ -9209,7 +9209,7 @@
         <v>5</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K90">
         <v>0.6</v>
@@ -9309,7 +9309,7 @@
         <v>10</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K92">
         <v>0.5845070422535211</v>
@@ -9359,7 +9359,7 @@
         <v>5</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K93">
         <v>0.5833333333333334</v>
@@ -9459,7 +9459,7 @@
         <v>21</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="K95">
         <v>0.5714285714285714</v>
@@ -9509,7 +9509,7 @@
         <v>16</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K96">
         <v>0.5714285714285714</v>
@@ -9559,7 +9559,7 @@
         <v>22</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K97">
         <v>0.5714285714285714</v>
@@ -9609,7 +9609,7 @@
         <v>22</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K98">
         <v>0.5714285714285714</v>
@@ -9659,7 +9659,7 @@
         <v>11</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K99">
         <v>0.5714285714285714</v>
@@ -9759,7 +9759,7 @@
         <v>6</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="K101">
         <v>0.5686274509803921</v>
@@ -9809,7 +9809,7 @@
         <v>6</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K102">
         <v>0.5625</v>
@@ -9859,7 +9859,7 @@
         <v>6</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="K103">
         <v>0.5625</v>
@@ -9909,7 +9909,7 @@
         <v>6</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="K104">
         <v>0.5555555555555556</v>
@@ -10009,7 +10009,7 @@
         <v>6</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="K106">
         <v>0.5531914893617021</v>
@@ -10059,28 +10059,28 @@
         <v>6</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>171</v>
+        <v>97</v>
       </c>
       <c r="K107">
-        <v>0.551829268292683</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="L107">
-        <v>181</v>
+        <v>12</v>
       </c>
       <c r="M107">
-        <v>193</v>
+        <v>14</v>
       </c>
       <c r="N107">
-        <v>0.9399999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="O107">
-        <v>0.06000000000000005</v>
+        <v>0.14</v>
       </c>
       <c r="P107" t="b">
         <v>1</v>
       </c>
       <c r="Q107">
-        <v>147</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108" spans="1:17">
@@ -10109,28 +10109,28 @@
         <v>12</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>97</v>
+        <v>416</v>
       </c>
       <c r="K108">
         <v>0.5454545454545454</v>
       </c>
       <c r="L108">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M108">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="N108">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="O108">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="P108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q108">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="109" spans="1:17">
@@ -10162,25 +10162,25 @@
         <v>417</v>
       </c>
       <c r="K109">
-        <v>0.5454545454545454</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L109">
+        <v>7</v>
+      </c>
+      <c r="M109">
+        <v>7</v>
+      </c>
+      <c r="N109">
+        <v>1</v>
+      </c>
+      <c r="O109">
+        <v>0</v>
+      </c>
+      <c r="P109" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q109">
         <v>6</v>
-      </c>
-      <c r="M109">
-        <v>6</v>
-      </c>
-      <c r="N109">
-        <v>1</v>
-      </c>
-      <c r="O109">
-        <v>0</v>
-      </c>
-      <c r="P109" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q109">
-        <v>5</v>
       </c>
     </row>
     <row r="110" spans="1:17">
@@ -10212,13 +10212,13 @@
         <v>418</v>
       </c>
       <c r="K110">
-        <v>0.5384615384615384</v>
+        <v>0.5323529411764706</v>
       </c>
       <c r="L110">
-        <v>7</v>
+        <v>181</v>
       </c>
       <c r="M110">
-        <v>7</v>
+        <v>181</v>
       </c>
       <c r="N110">
         <v>1</v>
@@ -10230,7 +10230,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>6</v>
+        <v>159</v>
       </c>
     </row>
     <row r="111" spans="1:17">
@@ -10709,7 +10709,7 @@
         <v>7</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K120">
         <v>0.5</v>
@@ -11309,7 +11309,7 @@
         <v>16</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K132">
         <v>0.4814814814814815</v>
@@ -11409,7 +11409,7 @@
         <v>17</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K134">
         <v>0.4772727272727273</v>
@@ -11759,7 +11759,7 @@
         <v>9</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K141">
         <v>0.4551724137931035</v>
@@ -11791,25 +11791,25 @@
         <v>0.09523809523809523</v>
       </c>
       <c r="C142">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D142">
-        <v>163</v>
+        <v>12</v>
       </c>
       <c r="E142">
-        <v>0.95</v>
+        <v>0.83</v>
       </c>
       <c r="F142">
-        <v>0.05000000000000004</v>
+        <v>0.17</v>
       </c>
       <c r="G142" t="b">
         <v>1</v>
       </c>
       <c r="H142">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K142">
         <v>0.4545454545454545</v>
@@ -11838,25 +11838,25 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.09523809523809523</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D143">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E143">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F143">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H143">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>441</v>
@@ -11894,16 +11894,16 @@
         <v>1</v>
       </c>
       <c r="D144">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F144">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H144">
         <v>10</v>
@@ -11959,7 +11959,7 @@
         <v>10</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K145">
         <v>0.4477611940298508</v>
@@ -11994,16 +11994,16 @@
         <v>1</v>
       </c>
       <c r="D146">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E146">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F146">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H146">
         <v>10</v>
@@ -12038,13 +12038,13 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.09090909090909091</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="C147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E147">
         <v>0</v>
@@ -12056,10 +12056,10 @@
         <v>0</v>
       </c>
       <c r="H147">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K147">
         <v>0.4285714285714285</v>
@@ -12094,16 +12094,16 @@
         <v>2</v>
       </c>
       <c r="D148">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F148">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H148">
         <v>21</v>
@@ -12138,25 +12138,25 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.08695652173913043</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D149">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="E149">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F149">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H149">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>79</v>
@@ -12244,16 +12244,16 @@
         <v>1</v>
       </c>
       <c r="D151">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F151">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H151">
         <v>11</v>
@@ -12294,13 +12294,13 @@
         <v>1</v>
       </c>
       <c r="D152">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E152">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="F152">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G152" t="b">
         <v>1</v>
@@ -12309,7 +12309,7 @@
         <v>11</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K152">
         <v>0.4285714285714285</v>
@@ -12344,13 +12344,13 @@
         <v>1</v>
       </c>
       <c r="D153">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E153">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F153">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G153" t="b">
         <v>1</v>
@@ -12394,13 +12394,13 @@
         <v>1</v>
       </c>
       <c r="D154">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E154">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F154">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G154" t="b">
         <v>1</v>
@@ -12444,16 +12444,16 @@
         <v>1</v>
       </c>
       <c r="D155">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E155">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F155">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H155">
         <v>11</v>
@@ -12588,25 +12588,25 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.08333333333333333</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="C158">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D158">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F158">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H158">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>452</v>
@@ -12638,25 +12638,25 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.07894736842105263</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C159">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D159">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="E159">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F159">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H159">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>453</v>
@@ -12691,22 +12691,22 @@
         <v>0.07692307692307693</v>
       </c>
       <c r="C160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D160">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F160">
-        <v>1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H160">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>454</v>
@@ -12744,13 +12744,13 @@
         <v>1</v>
       </c>
       <c r="D161">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E161">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="F161">
-        <v>0.09999999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="G161" t="b">
         <v>1</v>
@@ -12794,13 +12794,13 @@
         <v>1</v>
       </c>
       <c r="D162">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E162">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F162">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G162" t="b">
         <v>1</v>
@@ -12844,13 +12844,13 @@
         <v>1</v>
       </c>
       <c r="D163">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E163">
-        <v>0.67</v>
+        <v>0.91</v>
       </c>
       <c r="F163">
-        <v>0.33</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
@@ -12894,16 +12894,16 @@
         <v>1</v>
       </c>
       <c r="D164">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E164">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="F164">
-        <v>0.08999999999999997</v>
+        <v>1</v>
       </c>
       <c r="G164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H164">
         <v>12</v>
@@ -12938,13 +12938,13 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.07692307692307693</v>
+        <v>0.075</v>
       </c>
       <c r="C165">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D165">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E165">
         <v>0</v>
@@ -12956,7 +12956,7 @@
         <v>0</v>
       </c>
       <c r="H165">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>459</v>
@@ -12988,25 +12988,25 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.07547169811320754</v>
+        <v>0.075</v>
       </c>
       <c r="C166">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D166">
-        <v>193</v>
+        <v>33</v>
       </c>
       <c r="E166">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="F166">
-        <v>0.06000000000000005</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>147</v>
+        <v>37</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>460</v>
@@ -13038,25 +13038,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.075</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="C167">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D167">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F167">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H167">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>461</v>
@@ -13088,28 +13088,28 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.075</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C168">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D168">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E168">
-        <v>0.91</v>
+        <v>0.8</v>
       </c>
       <c r="F168">
-        <v>0.08999999999999997</v>
+        <v>0.2</v>
       </c>
       <c r="G168" t="b">
         <v>1</v>
       </c>
       <c r="H168">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="J168" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K168">
         <v>0.4146981627296588</v>
@@ -13138,28 +13138,28 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.07407407407407407</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C169">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D169">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E169">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="F169">
-        <v>0.8</v>
+        <v>0.33</v>
       </c>
       <c r="G169" t="b">
         <v>1</v>
       </c>
       <c r="H169">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="J169" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K169">
         <v>0.4146341463414634</v>
@@ -13194,13 +13194,13 @@
         <v>1</v>
       </c>
       <c r="D170">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E170">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="F170">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
@@ -13294,13 +13294,13 @@
         <v>1</v>
       </c>
       <c r="D172">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E172">
-        <v>0.67</v>
+        <v>0.89</v>
       </c>
       <c r="F172">
-        <v>0.33</v>
+        <v>0.11</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
@@ -13344,13 +13344,13 @@
         <v>1</v>
       </c>
       <c r="D173">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E173">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F173">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
@@ -13394,13 +13394,13 @@
         <v>1</v>
       </c>
       <c r="D174">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E174">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="F174">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="G174" t="b">
         <v>1</v>
@@ -13444,13 +13444,13 @@
         <v>1</v>
       </c>
       <c r="D175">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E175">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F175">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
@@ -13494,13 +13494,13 @@
         <v>1</v>
       </c>
       <c r="D176">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E176">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="F176">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G176" t="b">
         <v>1</v>
@@ -13544,16 +13544,16 @@
         <v>1</v>
       </c>
       <c r="D177">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E177">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F177">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H177">
         <v>13</v>
@@ -13588,25 +13588,25 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C178">
         <v>1</v>
       </c>
       <c r="D178">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E178">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F178">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H178">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>65</v>
@@ -13638,7 +13638,7 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C179">
         <v>1</v>
@@ -13656,10 +13656,10 @@
         <v>0</v>
       </c>
       <c r="H179">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J179" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K179">
         <v>0.3928571428571428</v>
@@ -13691,22 +13691,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="C180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D180">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F180">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="G180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H180">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>468</v>
@@ -13744,22 +13744,22 @@
         <v>1</v>
       </c>
       <c r="D181">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F181">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H181">
         <v>14</v>
       </c>
       <c r="J181" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K181">
         <v>0.3809523809523809</v>
@@ -13791,22 +13791,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="C182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D182">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E182">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F182">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="G182" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H182">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>469</v>
@@ -13844,13 +13844,13 @@
         <v>1</v>
       </c>
       <c r="D183">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E183">
-        <v>0.5</v>
+        <v>0.93</v>
       </c>
       <c r="F183">
-        <v>0.5</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G183" t="b">
         <v>1</v>
@@ -13941,22 +13941,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="C185">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D185">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E185">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F185">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G185" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H185">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>472</v>
@@ -13988,13 +13988,13 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.06666666666666667</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="C186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E186">
         <v>0</v>
@@ -14006,7 +14006,7 @@
         <v>0</v>
       </c>
       <c r="H186">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>473</v>
@@ -14038,7 +14038,7 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.06666666666666667</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="C187">
         <v>2</v>
@@ -14056,7 +14056,7 @@
         <v>0</v>
       </c>
       <c r="H187">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>474</v>
@@ -14088,25 +14088,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.06451612903225806</v>
+        <v>0.0625</v>
       </c>
       <c r="C188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D188">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F188">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H188">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>475</v>
@@ -14138,25 +14138,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.06451612903225806</v>
+        <v>0.0625</v>
       </c>
       <c r="C189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D189">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E189">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F189">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H189">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>476</v>
@@ -14194,13 +14194,13 @@
         <v>1</v>
       </c>
       <c r="D190">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E190">
-        <v>0.67</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F190">
-        <v>0.33</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
@@ -14241,22 +14241,22 @@
         <v>0.0625</v>
       </c>
       <c r="C191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D191">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E191">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F191">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H191">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>478</v>
@@ -14294,16 +14294,16 @@
         <v>1</v>
       </c>
       <c r="D192">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E192">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F192">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G192" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H192">
         <v>15</v>
@@ -14341,10 +14341,10 @@
         <v>0.0625</v>
       </c>
       <c r="C193">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D193">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E193">
         <v>0</v>
@@ -14356,7 +14356,7 @@
         <v>0</v>
       </c>
       <c r="H193">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>480</v>
@@ -14388,28 +14388,28 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.0625</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="C194">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D194">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E194">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F194">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="G194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H194">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="J194" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K194">
         <v>0.3666666666666666</v>
@@ -14438,25 +14438,25 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.0625</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="C195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D195">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F195">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H195">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>481</v>
@@ -14488,25 +14488,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.06060606060606061</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C196">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D196">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="E196">
-        <v>0.6</v>
+        <v>0.98</v>
       </c>
       <c r="F196">
-        <v>0.4</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>482</v>
@@ -14538,25 +14538,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.06060606060606061</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D197">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E197">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F197">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G197" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H197">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>483</v>
@@ -14594,16 +14594,16 @@
         <v>1</v>
       </c>
       <c r="D198">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="E198">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F198">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G198" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H198">
         <v>16</v>
@@ -14644,16 +14644,16 @@
         <v>1</v>
       </c>
       <c r="D199">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E199">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F199">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H199">
         <v>16</v>
@@ -14738,25 +14738,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C201">
         <v>1</v>
       </c>
       <c r="D201">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E201">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F201">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G201" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H201">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>487</v>
@@ -14788,25 +14788,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E202">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F202">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G202" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H202">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>488</v>
@@ -14844,22 +14844,22 @@
         <v>1</v>
       </c>
       <c r="D203">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E203">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F203">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H203">
         <v>17</v>
       </c>
       <c r="J203" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K203">
         <v>0.3448275862068966</v>
@@ -14894,13 +14894,13 @@
         <v>1</v>
       </c>
       <c r="D204">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E204">
-        <v>0.75</v>
+        <v>0.89</v>
       </c>
       <c r="F204">
-        <v>0.25</v>
+        <v>0.11</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
@@ -14909,7 +14909,7 @@
         <v>17</v>
       </c>
       <c r="J204" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K204">
         <v>0.3414634146341464</v>
@@ -14938,25 +14938,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C205">
         <v>1</v>
       </c>
       <c r="D205">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E205">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="F205">
-        <v>0.07999999999999996</v>
+        <v>0.11</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>489</v>
@@ -14988,25 +14988,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C206">
         <v>1</v>
       </c>
       <c r="D206">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E206">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="F206">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>490</v>
@@ -15044,13 +15044,13 @@
         <v>1</v>
       </c>
       <c r="D207">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E207">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="F207">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
@@ -15094,13 +15094,13 @@
         <v>1</v>
       </c>
       <c r="D208">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E208">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="F208">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
@@ -15138,25 +15138,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.05263157894736842</v>
+        <v>0.05</v>
       </c>
       <c r="C209">
         <v>1</v>
       </c>
       <c r="D209">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E209">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F209">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>493</v>
@@ -15188,25 +15188,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.05263157894736842</v>
+        <v>0.05</v>
       </c>
       <c r="C210">
         <v>1</v>
       </c>
       <c r="D210">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E210">
-        <v>0.5</v>
+        <v>0.92</v>
       </c>
       <c r="F210">
-        <v>0.5</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>494</v>
@@ -15244,13 +15244,13 @@
         <v>1</v>
       </c>
       <c r="D211">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E211">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="F211">
-        <v>0.2</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
@@ -15294,13 +15294,13 @@
         <v>1</v>
       </c>
       <c r="D212">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E212">
-        <v>0.92</v>
+        <v>0.67</v>
       </c>
       <c r="F212">
-        <v>0.07999999999999996</v>
+        <v>0.33</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
@@ -15344,13 +15344,13 @@
         <v>1</v>
       </c>
       <c r="D213">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E213">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="F213">
-        <v>0.09999999999999998</v>
+        <v>0.25</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
@@ -15394,16 +15394,16 @@
         <v>1</v>
       </c>
       <c r="D214">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E214">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F214">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G214" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H214">
         <v>19</v>
@@ -15438,25 +15438,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C215">
         <v>1</v>
       </c>
       <c r="D215">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E215">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F215">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G215" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H215">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>499</v>
@@ -15488,25 +15488,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C216">
         <v>1</v>
       </c>
       <c r="D216">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="E216">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="F216">
-        <v>1</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G216" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H216">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>500</v>
@@ -15538,25 +15538,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.04761904761904762</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C217">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D217">
-        <v>1</v>
+        <v>118</v>
       </c>
       <c r="E217">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F217">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G217" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H217">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>501</v>
@@ -15588,25 +15588,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.04761904761904762</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C218">
         <v>1</v>
       </c>
       <c r="D218">
-        <v>108</v>
+        <v>4</v>
       </c>
       <c r="E218">
-        <v>0.99</v>
+        <v>0.75</v>
       </c>
       <c r="F218">
-        <v>0.01000000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>502</v>
@@ -15638,25 +15638,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C219">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D219">
-        <v>118</v>
+        <v>3</v>
       </c>
       <c r="E219">
-        <v>0.98</v>
+        <v>0.67</v>
       </c>
       <c r="F219">
-        <v>0.02000000000000002</v>
+        <v>0.33</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>503</v>
@@ -15694,13 +15694,13 @@
         <v>1</v>
       </c>
       <c r="D220">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E220">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F220">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
@@ -15744,16 +15744,16 @@
         <v>1</v>
       </c>
       <c r="D221">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E221">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F221">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G221" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H221">
         <v>22</v>
@@ -15788,25 +15788,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C222">
         <v>1</v>
       </c>
       <c r="D222">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E222">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F222">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>506</v>
@@ -15838,7 +15838,7 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C223">
         <v>1</v>
@@ -15856,7 +15856,7 @@
         <v>0</v>
       </c>
       <c r="H223">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>507</v>
@@ -15888,25 +15888,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="C224">
         <v>1</v>
       </c>
       <c r="D224">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E224">
-        <v>0.75</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F224">
-        <v>0.25</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>508</v>
@@ -15938,25 +15938,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="C225">
         <v>1</v>
       </c>
       <c r="D225">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E225">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F225">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G225" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H225">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>509</v>
@@ -15994,13 +15994,13 @@
         <v>1</v>
       </c>
       <c r="D226">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E226">
-        <v>0.9399999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="F226">
-        <v>0.06000000000000005</v>
+        <v>0.33</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
@@ -16044,16 +16044,16 @@
         <v>1</v>
       </c>
       <c r="D227">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E227">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F227">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G227" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H227">
         <v>24</v>
@@ -16094,13 +16094,13 @@
         <v>1</v>
       </c>
       <c r="D228">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E228">
-        <v>0.67</v>
+        <v>0.95</v>
       </c>
       <c r="F228">
-        <v>0.33</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
@@ -16144,16 +16144,16 @@
         <v>1</v>
       </c>
       <c r="D229">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E229">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F229">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G229" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H229">
         <v>24</v>
@@ -16194,16 +16194,16 @@
         <v>1</v>
       </c>
       <c r="D230">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E230">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F230">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G230" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H230">
         <v>24</v>
@@ -16238,28 +16238,28 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.04</v>
+        <v>0.03896103896103896</v>
       </c>
       <c r="C231">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D231">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E231">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F231">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G231" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H231">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="J231" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K231">
         <v>0.3333333333333333</v>
@@ -16288,7 +16288,7 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.04</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C232">
         <v>1</v>
@@ -16306,7 +16306,7 @@
         <v>0</v>
       </c>
       <c r="H232">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>514</v>
@@ -16338,25 +16338,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.03896103896103896</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C233">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D233">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E233">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F233">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G233" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H233">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>515</v>
@@ -16388,25 +16388,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.03846153846153846</v>
+        <v>0.03773584905660377</v>
       </c>
       <c r="C234">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D234">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F234">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G234" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H234">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>516</v>
@@ -16438,25 +16438,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C235">
         <v>1</v>
       </c>
       <c r="D235">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E235">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F235">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G235" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H235">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>517</v>
@@ -16488,25 +16488,25 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.03773584905660377</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C236">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D236">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E236">
-        <v>0.88</v>
+        <v>0.67</v>
       </c>
       <c r="F236">
-        <v>0.12</v>
+        <v>0.33</v>
       </c>
       <c r="G236" t="b">
         <v>1</v>
       </c>
       <c r="H236">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>518</v>
@@ -16544,16 +16544,16 @@
         <v>1</v>
       </c>
       <c r="D237">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E237">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F237">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G237" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H237">
         <v>26</v>
@@ -16594,13 +16594,13 @@
         <v>1</v>
       </c>
       <c r="D238">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E238">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F238">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G238" t="b">
         <v>1</v>
@@ -16644,13 +16644,13 @@
         <v>1</v>
       </c>
       <c r="D239">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E239">
-        <v>0.5</v>
+        <v>0.93</v>
       </c>
       <c r="F239">
-        <v>0.5</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
@@ -16688,25 +16688,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C240">
         <v>1</v>
       </c>
       <c r="D240">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E240">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F240">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G240" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H240">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>521</v>
@@ -16738,13 +16738,13 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C241">
         <v>1</v>
       </c>
       <c r="D241">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E241">
         <v>0.93</v>
@@ -16756,7 +16756,7 @@
         <v>1</v>
       </c>
       <c r="H241">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>522</v>
@@ -16794,16 +16794,16 @@
         <v>1</v>
       </c>
       <c r="D242">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E242">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F242">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G242" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H242">
         <v>27</v>
@@ -16838,25 +16838,25 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.03571428571428571</v>
+        <v>0.03529411764705882</v>
       </c>
       <c r="C243">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D243">
         <v>15</v>
       </c>
       <c r="E243">
-        <v>0.93</v>
+        <v>0.8</v>
       </c>
       <c r="F243">
-        <v>0.06999999999999995</v>
+        <v>0.2</v>
       </c>
       <c r="G243" t="b">
         <v>1</v>
       </c>
       <c r="H243">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>523</v>
@@ -16888,25 +16888,25 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.03571428571428571</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C244">
         <v>1</v>
       </c>
       <c r="D244">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="E244">
-        <v>0.67</v>
+        <v>0.97</v>
       </c>
       <c r="F244">
-        <v>0.33</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G244" t="b">
         <v>1</v>
       </c>
       <c r="H244">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>524</v>
@@ -16938,25 +16938,25 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.03529411764705882</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C245">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D245">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E245">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="F245">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G245" t="b">
         <v>1</v>
       </c>
       <c r="H245">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>525</v>
@@ -16988,25 +16988,25 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.03448275862068965</v>
+        <v>0.03125</v>
       </c>
       <c r="C246">
         <v>1</v>
       </c>
       <c r="D246">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="E246">
-        <v>0.97</v>
+        <v>0.88</v>
       </c>
       <c r="F246">
-        <v>0.03000000000000003</v>
+        <v>0.12</v>
       </c>
       <c r="G246" t="b">
         <v>1</v>
       </c>
       <c r="H246">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>76</v>
@@ -17038,25 +17038,25 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.03225806451612903</v>
+        <v>0.03125</v>
       </c>
       <c r="C247">
         <v>1</v>
       </c>
       <c r="D247">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E247">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="F247">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G247" t="b">
         <v>1</v>
       </c>
       <c r="H247">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>526</v>
@@ -17094,13 +17094,13 @@
         <v>1</v>
       </c>
       <c r="D248">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E248">
-        <v>0.88</v>
+        <v>0.67</v>
       </c>
       <c r="F248">
-        <v>0.12</v>
+        <v>0.33</v>
       </c>
       <c r="G248" t="b">
         <v>1</v>
@@ -17138,28 +17138,28 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.03125</v>
+        <v>0.03067484662576687</v>
       </c>
       <c r="C249">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D249">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="E249">
-        <v>0.67</v>
+        <v>0.96</v>
       </c>
       <c r="F249">
-        <v>0.33</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G249" t="b">
         <v>1</v>
       </c>
       <c r="H249">
-        <v>31</v>
+        <v>158</v>
       </c>
       <c r="J249" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K249">
         <v>0.3214285714285715</v>
@@ -17188,25 +17188,25 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.03125</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C250">
         <v>1</v>
       </c>
       <c r="D250">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E250">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F250">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G250" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H250">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>528</v>
@@ -17238,28 +17238,28 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.03067484662576687</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C251">
+        <v>1</v>
+      </c>
+      <c r="D251">
         <v>5</v>
       </c>
-      <c r="D251">
-        <v>137</v>
-      </c>
       <c r="E251">
-        <v>0.96</v>
+        <v>0.8</v>
       </c>
       <c r="F251">
-        <v>0.04000000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="G251" t="b">
         <v>1</v>
       </c>
       <c r="H251">
-        <v>158</v>
+        <v>34</v>
       </c>
       <c r="J251" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K251">
         <v>0.32</v>
@@ -17288,25 +17288,25 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.02941176470588235</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C252">
         <v>1</v>
       </c>
       <c r="D252">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E252">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F252">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G252" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H252">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>529</v>
@@ -17338,25 +17338,25 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.02857142857142857</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C253">
         <v>1</v>
       </c>
       <c r="D253">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E253">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F253">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G253" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H253">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>530</v>
@@ -17388,25 +17388,25 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.02857142857142857</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C254">
         <v>1</v>
       </c>
       <c r="D254">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E254">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F254">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G254" t="b">
         <v>1</v>
       </c>
       <c r="H254">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>531</v>
@@ -17438,25 +17438,25 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>0.02777777777777778</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C255">
         <v>1</v>
       </c>
       <c r="D255">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E255">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F255">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G255" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H255">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>532</v>
@@ -17488,28 +17488,28 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>0.02777777777777778</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C256">
         <v>1</v>
       </c>
       <c r="D256">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E256">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="F256">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="G256" t="b">
         <v>1</v>
       </c>
       <c r="H256">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J256" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K256">
         <v>0.3076923076923077</v>
@@ -17544,13 +17544,13 @@
         <v>1</v>
       </c>
       <c r="D257">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E257">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F257">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G257" t="b">
         <v>1</v>
@@ -17594,13 +17594,13 @@
         <v>1</v>
       </c>
       <c r="D258">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E258">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="F258">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G258" t="b">
         <v>1</v>
@@ -17638,25 +17638,25 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>0.02702702702702703</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C259">
         <v>1</v>
       </c>
       <c r="D259">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E259">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F259">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G259" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H259">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>535</v>
@@ -17688,25 +17688,25 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>0.02702702702702703</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C260">
         <v>1</v>
       </c>
       <c r="D260">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E260">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F260">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G260" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H260">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>536</v>
@@ -17738,25 +17738,25 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>0.02631578947368421</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C261">
         <v>1</v>
       </c>
       <c r="D261">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E261">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F261">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G261" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H261">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>537</v>
@@ -17788,25 +17788,25 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>0.02564102564102564</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C262">
         <v>1</v>
       </c>
       <c r="D262">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E262">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F262">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G262" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H262">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>538</v>
@@ -17838,25 +17838,25 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>0.02564102564102564</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C263">
         <v>1</v>
       </c>
       <c r="D263">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E263">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F263">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G263" t="b">
         <v>1</v>
       </c>
       <c r="H263">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>539</v>
@@ -17894,13 +17894,13 @@
         <v>1</v>
       </c>
       <c r="D264">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E264">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="F264">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="G264" t="b">
         <v>1</v>
@@ -17938,25 +17938,25 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>0.02439024390243903</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C265">
         <v>1</v>
       </c>
       <c r="D265">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E265">
-        <v>0.8</v>
+        <v>0.92</v>
       </c>
       <c r="F265">
-        <v>0.2</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G265" t="b">
         <v>1</v>
       </c>
       <c r="H265">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>541</v>
@@ -17988,7 +17988,7 @@
         <v>271</v>
       </c>
       <c r="B266">
-        <v>0.02439024390243903</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C266">
         <v>1</v>
@@ -18006,7 +18006,7 @@
         <v>1</v>
       </c>
       <c r="H266">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>113</v>
@@ -18044,16 +18044,16 @@
         <v>1</v>
       </c>
       <c r="D267">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E267">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F267">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G267" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H267">
         <v>41</v>
@@ -18088,25 +18088,25 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>0.02380952380952381</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="C268">
         <v>1</v>
       </c>
       <c r="D268">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E268">
-        <v>0.86</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F268">
-        <v>0.14</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G268" t="b">
         <v>1</v>
       </c>
       <c r="H268">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>543</v>
@@ -18138,25 +18138,25 @@
         <v>274</v>
       </c>
       <c r="B269">
-        <v>0.02380952380952381</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="C269">
         <v>1</v>
       </c>
       <c r="D269">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E269">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F269">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G269" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H269">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>544</v>
@@ -18188,25 +18188,25 @@
         <v>275</v>
       </c>
       <c r="B270">
-        <v>0.02325581395348837</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C270">
         <v>1</v>
       </c>
       <c r="D270">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E270">
-        <v>0.9399999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="F270">
-        <v>0.06000000000000005</v>
+        <v>0.14</v>
       </c>
       <c r="G270" t="b">
         <v>1</v>
       </c>
       <c r="H270">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J270" s="1" t="s">
         <v>545</v>
@@ -18238,7 +18238,7 @@
         <v>276</v>
       </c>
       <c r="B271">
-        <v>0.02272727272727273</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="C271">
         <v>1</v>
@@ -18256,7 +18256,7 @@
         <v>1</v>
       </c>
       <c r="H271">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>546</v>
@@ -18288,25 +18288,25 @@
         <v>277</v>
       </c>
       <c r="B272">
-        <v>0.02222222222222222</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="C272">
         <v>1</v>
       </c>
       <c r="D272">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E272">
-        <v>0.86</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F272">
-        <v>0.14</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G272" t="b">
         <v>1</v>
       </c>
       <c r="H272">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J272" s="1" t="s">
         <v>547</v>
@@ -18338,25 +18338,25 @@
         <v>278</v>
       </c>
       <c r="B273">
-        <v>0.02173913043478261</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C273">
         <v>1</v>
       </c>
       <c r="D273">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="E273">
-        <v>0.8</v>
+        <v>0.98</v>
       </c>
       <c r="F273">
-        <v>0.2</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G273" t="b">
         <v>1</v>
       </c>
       <c r="H273">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>548</v>
@@ -18388,25 +18388,25 @@
         <v>279</v>
       </c>
       <c r="B274">
-        <v>0.02173913043478261</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C274">
         <v>1</v>
       </c>
       <c r="D274">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E274">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F274">
-        <v>0.06000000000000005</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G274" t="b">
         <v>1</v>
       </c>
       <c r="H274">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J274" s="1" t="s">
         <v>549</v>
@@ -18438,25 +18438,25 @@
         <v>280</v>
       </c>
       <c r="B275">
-        <v>0.02127659574468085</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="C275">
         <v>1</v>
       </c>
       <c r="D275">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="E275">
-        <v>0.98</v>
+        <v>0.88</v>
       </c>
       <c r="F275">
-        <v>0.02000000000000002</v>
+        <v>0.12</v>
       </c>
       <c r="G275" t="b">
         <v>1</v>
       </c>
       <c r="H275">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J275" s="1" t="s">
         <v>550</v>
@@ -18488,25 +18488,25 @@
         <v>281</v>
       </c>
       <c r="B276">
-        <v>0.02083333333333333</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="C276">
         <v>1</v>
       </c>
       <c r="D276">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E276">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="F276">
-        <v>0.09999999999999998</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G276" t="b">
         <v>1</v>
       </c>
       <c r="H276">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J276" s="1" t="s">
         <v>551</v>
@@ -18544,13 +18544,13 @@
         <v>1</v>
       </c>
       <c r="D277">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E277">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="F277">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="G277" t="b">
         <v>1</v>
@@ -18588,25 +18588,25 @@
         <v>283</v>
       </c>
       <c r="B278">
-        <v>0.02040816326530612</v>
+        <v>0.02</v>
       </c>
       <c r="C278">
         <v>1</v>
       </c>
       <c r="D278">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E278">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="F278">
-        <v>0.07999999999999996</v>
+        <v>0.11</v>
       </c>
       <c r="G278" t="b">
         <v>1</v>
       </c>
       <c r="H278">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J278" s="1" t="s">
         <v>553</v>
@@ -18638,25 +18638,25 @@
         <v>284</v>
       </c>
       <c r="B279">
-        <v>0.02040816326530612</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C279">
         <v>1</v>
       </c>
       <c r="D279">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E279">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="F279">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G279" t="b">
         <v>1</v>
       </c>
       <c r="H279">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J279" s="1" t="s">
         <v>554</v>
@@ -18688,25 +18688,25 @@
         <v>285</v>
       </c>
       <c r="B280">
-        <v>0.02</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="C280">
         <v>1</v>
       </c>
       <c r="D280">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E280">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="F280">
-        <v>0.11</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G280" t="b">
         <v>1</v>
       </c>
       <c r="H280">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J280" s="1" t="s">
         <v>555</v>
@@ -18738,25 +18738,25 @@
         <v>286</v>
       </c>
       <c r="B281">
-        <v>0.0196078431372549</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="C281">
         <v>1</v>
       </c>
       <c r="D281">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E281">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="F281">
-        <v>0.17</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G281" t="b">
         <v>1</v>
       </c>
       <c r="H281">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J281" s="1" t="s">
         <v>556</v>
@@ -18788,25 +18788,25 @@
         <v>287</v>
       </c>
       <c r="B282">
-        <v>0.01923076923076923</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="C282">
         <v>1</v>
       </c>
       <c r="D282">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E282">
-        <v>0.92</v>
+        <v>0.75</v>
       </c>
       <c r="F282">
-        <v>0.07999999999999996</v>
+        <v>0.25</v>
       </c>
       <c r="G282" t="b">
         <v>1</v>
       </c>
       <c r="H282">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J282" s="1" t="s">
         <v>557</v>
@@ -18838,25 +18838,25 @@
         <v>288</v>
       </c>
       <c r="B283">
-        <v>0.01886792452830189</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C283">
         <v>1</v>
       </c>
       <c r="D283">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="E283">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="F283">
-        <v>0.05000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="G283" t="b">
         <v>1</v>
       </c>
       <c r="H283">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J283" s="1" t="s">
         <v>558</v>
@@ -18888,25 +18888,25 @@
         <v>289</v>
       </c>
       <c r="B284">
-        <v>0.01851851851851852</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C284">
         <v>1</v>
       </c>
       <c r="D284">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E284">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F284">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G284" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H284">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J284" s="1" t="s">
         <v>559</v>
@@ -18944,13 +18944,13 @@
         <v>1</v>
       </c>
       <c r="D285">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E285">
-        <v>0.75</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F285">
-        <v>0.25</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G285" t="b">
         <v>1</v>
@@ -18988,25 +18988,25 @@
         <v>291</v>
       </c>
       <c r="B286">
-        <v>0.01785714285714286</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="C286">
         <v>1</v>
       </c>
       <c r="D286">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E286">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F286">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G286" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H286">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J286" s="1" t="s">
         <v>560</v>
@@ -19038,25 +19038,25 @@
         <v>292</v>
       </c>
       <c r="B287">
-        <v>0.01785714285714286</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="C287">
         <v>1</v>
       </c>
       <c r="D287">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E287">
-        <v>0.9399999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="F287">
-        <v>0.06000000000000005</v>
+        <v>0.33</v>
       </c>
       <c r="G287" t="b">
         <v>1</v>
       </c>
       <c r="H287">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J287" s="1" t="s">
         <v>561</v>
@@ -19088,25 +19088,25 @@
         <v>293</v>
       </c>
       <c r="B288">
-        <v>0.01754385964912281</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="C288">
         <v>1</v>
       </c>
       <c r="D288">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E288">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="F288">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="G288" t="b">
         <v>1</v>
       </c>
       <c r="H288">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J288" s="1" t="s">
         <v>562</v>
@@ -19138,25 +19138,25 @@
         <v>294</v>
       </c>
       <c r="B289">
-        <v>0.01754385964912281</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="C289">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D289">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="E289">
-        <v>0.67</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F289">
-        <v>0.33</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G289" t="b">
         <v>1</v>
       </c>
       <c r="H289">
-        <v>56</v>
+        <v>124</v>
       </c>
       <c r="J289" s="1" t="s">
         <v>563</v>
@@ -19188,25 +19188,25 @@
         <v>295</v>
       </c>
       <c r="B290">
-        <v>0.01694915254237288</v>
+        <v>0.015625</v>
       </c>
       <c r="C290">
         <v>1</v>
       </c>
       <c r="D290">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E290">
-        <v>0.88</v>
+        <v>0.67</v>
       </c>
       <c r="F290">
-        <v>0.12</v>
+        <v>0.33</v>
       </c>
       <c r="G290" t="b">
         <v>1</v>
       </c>
       <c r="H290">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J290" s="1" t="s">
         <v>564</v>
@@ -19238,25 +19238,25 @@
         <v>296</v>
       </c>
       <c r="B291">
-        <v>0.01587301587301587</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="C291">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D291">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E291">
-        <v>0.9399999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="F291">
-        <v>0.06000000000000005</v>
+        <v>0.14</v>
       </c>
       <c r="G291" t="b">
         <v>1</v>
       </c>
       <c r="H291">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="J291" s="1" t="s">
         <v>565</v>
@@ -19288,25 +19288,25 @@
         <v>297</v>
       </c>
       <c r="B292">
-        <v>0.015625</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="C292">
         <v>1</v>
       </c>
       <c r="D292">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E292">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="F292">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G292" t="b">
         <v>1</v>
       </c>
       <c r="H292">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="J292" s="1" t="s">
         <v>566</v>
@@ -19338,28 +19338,28 @@
         <v>298</v>
       </c>
       <c r="B293">
-        <v>0.01515151515151515</v>
+        <v>0.01342281879194631</v>
       </c>
       <c r="C293">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D293">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E293">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F293">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G293" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H293">
-        <v>65</v>
+        <v>147</v>
       </c>
       <c r="J293" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K293">
         <v>0.2777777777777778</v>
@@ -19388,25 +19388,25 @@
         <v>299</v>
       </c>
       <c r="B294">
-        <v>0.01408450704225352</v>
+        <v>0.01324503311258278</v>
       </c>
       <c r="C294">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D294">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E294">
-        <v>0.83</v>
+        <v>0.87</v>
       </c>
       <c r="F294">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
       <c r="G294" t="b">
         <v>1</v>
       </c>
       <c r="H294">
-        <v>70</v>
+        <v>149</v>
       </c>
       <c r="J294" s="1" t="s">
         <v>567</v>
@@ -19438,28 +19438,28 @@
         <v>300</v>
       </c>
       <c r="B295">
-        <v>0.01342281879194631</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="C295">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D295">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E295">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F295">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G295" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H295">
-        <v>147</v>
+        <v>75</v>
       </c>
       <c r="J295" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K295">
         <v>0.2777777777777778</v>
@@ -19488,25 +19488,25 @@
         <v>301</v>
       </c>
       <c r="B296">
-        <v>0.01324503311258278</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="C296">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D296">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E296">
-        <v>0.87</v>
+        <v>0.91</v>
       </c>
       <c r="F296">
-        <v>0.13</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G296" t="b">
         <v>1</v>
       </c>
       <c r="H296">
-        <v>149</v>
+        <v>78</v>
       </c>
       <c r="J296" s="1" t="s">
         <v>568</v>
@@ -19538,28 +19538,28 @@
         <v>302</v>
       </c>
       <c r="B297">
-        <v>0.0131578947368421</v>
+        <v>0.0125</v>
       </c>
       <c r="C297">
         <v>1</v>
       </c>
       <c r="D297">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E297">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F297">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G297" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H297">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="J297" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K297">
         <v>0.2758620689655172</v>
@@ -19588,25 +19588,25 @@
         <v>303</v>
       </c>
       <c r="B298">
-        <v>0.01265822784810127</v>
+        <v>0.0125</v>
       </c>
       <c r="C298">
         <v>1</v>
       </c>
       <c r="D298">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E298">
-        <v>0.91</v>
+        <v>0.8</v>
       </c>
       <c r="F298">
-        <v>0.08999999999999997</v>
+        <v>0.2</v>
       </c>
       <c r="G298" t="b">
         <v>1</v>
       </c>
       <c r="H298">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J298" s="1" t="s">
         <v>569</v>
@@ -19638,13 +19638,13 @@
         <v>304</v>
       </c>
       <c r="B299">
-        <v>0.0125</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="C299">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D299">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E299">
         <v>0</v>
@@ -19656,7 +19656,7 @@
         <v>0</v>
       </c>
       <c r="H299">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="J299" s="1" t="s">
         <v>570</v>
@@ -19688,25 +19688,25 @@
         <v>305</v>
       </c>
       <c r="B300">
-        <v>0.0125</v>
+        <v>0.0119047619047619</v>
       </c>
       <c r="C300">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D300">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="E300">
-        <v>0.8</v>
+        <v>0.96</v>
       </c>
       <c r="F300">
-        <v>0.2</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G300" t="b">
         <v>1</v>
       </c>
       <c r="H300">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="J300" s="1" t="s">
         <v>571</v>
@@ -19738,25 +19738,25 @@
         <v>306</v>
       </c>
       <c r="B301">
-        <v>0.01204819277108434</v>
+        <v>0.0119047619047619</v>
       </c>
       <c r="C301">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D301">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E301">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F301">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G301" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H301">
-        <v>164</v>
+        <v>83</v>
       </c>
       <c r="J301" s="1" t="s">
         <v>572</v>
@@ -19791,22 +19791,22 @@
         <v>0.0119047619047619</v>
       </c>
       <c r="C302">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D302">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="E302">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F302">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G302" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H302">
-        <v>166</v>
+        <v>249</v>
       </c>
       <c r="J302" s="1" t="s">
         <v>573</v>
@@ -19838,25 +19838,25 @@
         <v>308</v>
       </c>
       <c r="B303">
-        <v>0.0119047619047619</v>
+        <v>0.01123595505617977</v>
       </c>
       <c r="C303">
         <v>1</v>
       </c>
       <c r="D303">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E303">
-        <v>0.83</v>
+        <v>0.91</v>
       </c>
       <c r="F303">
-        <v>0.17</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G303" t="b">
         <v>1</v>
       </c>
       <c r="H303">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J303" s="1" t="s">
         <v>574</v>
@@ -19888,25 +19888,25 @@
         <v>309</v>
       </c>
       <c r="B304">
-        <v>0.0119047619047619</v>
+        <v>0.01123595505617977</v>
       </c>
       <c r="C304">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D304">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E304">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F304">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G304" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H304">
-        <v>249</v>
+        <v>88</v>
       </c>
       <c r="J304" s="1" t="s">
         <v>575</v>
@@ -19938,25 +19938,25 @@
         <v>310</v>
       </c>
       <c r="B305">
-        <v>0.01123595505617977</v>
+        <v>0.01063829787234043</v>
       </c>
       <c r="C305">
         <v>1</v>
       </c>
       <c r="D305">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E305">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
       <c r="F305">
-        <v>0.08999999999999997</v>
+        <v>0.12</v>
       </c>
       <c r="G305" t="b">
         <v>1</v>
       </c>
       <c r="H305">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="J305" s="1" t="s">
         <v>576</v>
@@ -19988,25 +19988,25 @@
         <v>311</v>
       </c>
       <c r="B306">
-        <v>0.01123595505617977</v>
+        <v>0.01030927835051546</v>
       </c>
       <c r="C306">
         <v>1</v>
       </c>
       <c r="D306">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E306">
-        <v>0.75</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F306">
-        <v>0.25</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G306" t="b">
         <v>1</v>
       </c>
       <c r="H306">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="J306" s="1" t="s">
         <v>577</v>
@@ -20038,25 +20038,25 @@
         <v>312</v>
       </c>
       <c r="B307">
-        <v>0.01063829787234043</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="C307">
         <v>1</v>
       </c>
       <c r="D307">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E307">
-        <v>0.88</v>
+        <v>0.67</v>
       </c>
       <c r="F307">
-        <v>0.12</v>
+        <v>0.33</v>
       </c>
       <c r="G307" t="b">
         <v>1</v>
       </c>
       <c r="H307">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="J307" s="1" t="s">
         <v>578</v>
@@ -20088,25 +20088,25 @@
         <v>313</v>
       </c>
       <c r="B308">
-        <v>0.01030927835051546</v>
+        <v>0.01</v>
       </c>
       <c r="C308">
         <v>1</v>
       </c>
       <c r="D308">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E308">
-        <v>0.9399999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="F308">
-        <v>0.06000000000000005</v>
+        <v>0.5</v>
       </c>
       <c r="G308" t="b">
         <v>1</v>
       </c>
       <c r="H308">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="J308" s="1" t="s">
         <v>579</v>
@@ -20138,25 +20138,25 @@
         <v>314</v>
       </c>
       <c r="B309">
-        <v>0.01020408163265306</v>
+        <v>0.009900990099009901</v>
       </c>
       <c r="C309">
         <v>1</v>
       </c>
       <c r="D309">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E309">
-        <v>0.67</v>
+        <v>0.92</v>
       </c>
       <c r="F309">
-        <v>0.33</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G309" t="b">
         <v>1</v>
       </c>
       <c r="H309">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="J309" s="1" t="s">
         <v>580</v>
@@ -20188,25 +20188,25 @@
         <v>315</v>
       </c>
       <c r="B310">
-        <v>0.01</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="C310">
         <v>1</v>
       </c>
       <c r="D310">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E310">
-        <v>0.5</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F310">
-        <v>0.5</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G310" t="b">
         <v>1</v>
       </c>
       <c r="H310">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="J310" s="1" t="s">
         <v>581</v>
@@ -20238,25 +20238,25 @@
         <v>316</v>
       </c>
       <c r="B311">
-        <v>0.009900990099009901</v>
+        <v>0.009569377990430622</v>
       </c>
       <c r="C311">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D311">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E311">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="F311">
-        <v>0.07999999999999996</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G311" t="b">
         <v>1</v>
       </c>
       <c r="H311">
-        <v>100</v>
+        <v>207</v>
       </c>
       <c r="J311" s="1" t="s">
         <v>582</v>
@@ -20288,28 +20288,28 @@
         <v>317</v>
       </c>
       <c r="B312">
-        <v>0.009615384615384616</v>
+        <v>0.009523809523809525</v>
       </c>
       <c r="C312">
         <v>1</v>
       </c>
       <c r="D312">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E312">
-        <v>0.9399999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="F312">
-        <v>0.06000000000000005</v>
+        <v>0.25</v>
       </c>
       <c r="G312" t="b">
         <v>1</v>
       </c>
       <c r="H312">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J312" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K312">
         <v>0.2666666666666667</v>
@@ -20338,25 +20338,25 @@
         <v>318</v>
       </c>
       <c r="B313">
-        <v>0.009569377990430622</v>
+        <v>0.009174311926605505</v>
       </c>
       <c r="C313">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D313">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E313">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F313">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G313" t="b">
         <v>1</v>
       </c>
       <c r="H313">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="J313" s="1" t="s">
         <v>583</v>
@@ -20388,25 +20388,25 @@
         <v>319</v>
       </c>
       <c r="B314">
-        <v>0.009523809523809525</v>
+        <v>0.009174311926605505</v>
       </c>
       <c r="C314">
         <v>1</v>
       </c>
       <c r="D314">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="E314">
-        <v>0.75</v>
+        <v>0.96</v>
       </c>
       <c r="F314">
-        <v>0.25</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G314" t="b">
         <v>1</v>
       </c>
       <c r="H314">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="J314" s="1" t="s">
         <v>584</v>
@@ -20438,13 +20438,13 @@
         <v>320</v>
       </c>
       <c r="B315">
-        <v>0.009174311926605505</v>
+        <v>0.00909090909090909</v>
       </c>
       <c r="C315">
         <v>1</v>
       </c>
       <c r="D315">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E315">
         <v>0.96</v>
@@ -20456,7 +20456,7 @@
         <v>1</v>
       </c>
       <c r="H315">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J315" s="1" t="s">
         <v>585</v>
@@ -20488,25 +20488,25 @@
         <v>321</v>
       </c>
       <c r="B316">
-        <v>0.009174311926605505</v>
+        <v>0.008888888888888889</v>
       </c>
       <c r="C316">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D316">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="E316">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="F316">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G316" t="b">
         <v>1</v>
       </c>
       <c r="H316">
-        <v>108</v>
+        <v>223</v>
       </c>
       <c r="J316" s="1" t="s">
         <v>586</v>
@@ -20538,7 +20538,7 @@
         <v>322</v>
       </c>
       <c r="B317">
-        <v>0.00909090909090909</v>
+        <v>0.008849557522123894</v>
       </c>
       <c r="C317">
         <v>1</v>
@@ -20556,7 +20556,7 @@
         <v>1</v>
       </c>
       <c r="H317">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="J317" s="1" t="s">
         <v>587</v>
@@ -20588,25 +20588,25 @@
         <v>323</v>
       </c>
       <c r="B318">
-        <v>0.008888888888888889</v>
+        <v>0.008620689655172414</v>
       </c>
       <c r="C318">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D318">
-        <v>160</v>
+        <v>12</v>
       </c>
       <c r="E318">
-        <v>0.99</v>
+        <v>0.92</v>
       </c>
       <c r="F318">
-        <v>0.01000000000000001</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G318" t="b">
         <v>1</v>
       </c>
       <c r="H318">
-        <v>223</v>
+        <v>115</v>
       </c>
       <c r="J318" s="1" t="s">
         <v>588</v>
@@ -20638,25 +20638,25 @@
         <v>324</v>
       </c>
       <c r="B319">
-        <v>0.008849557522123894</v>
+        <v>0.008264462809917356</v>
       </c>
       <c r="C319">
         <v>1</v>
       </c>
       <c r="D319">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="E319">
-        <v>0.96</v>
+        <v>0.75</v>
       </c>
       <c r="F319">
-        <v>0.04000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="G319" t="b">
         <v>1</v>
       </c>
       <c r="H319">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="J319" s="1" t="s">
         <v>589</v>
@@ -20688,25 +20688,25 @@
         <v>325</v>
       </c>
       <c r="B320">
-        <v>0.008620689655172414</v>
+        <v>0.008130081300813009</v>
       </c>
       <c r="C320">
         <v>1</v>
       </c>
       <c r="D320">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="E320">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="F320">
-        <v>0.07999999999999996</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G320" t="b">
         <v>1</v>
       </c>
       <c r="H320">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="J320" s="1" t="s">
         <v>590</v>
@@ -20738,25 +20738,25 @@
         <v>326</v>
       </c>
       <c r="B321">
-        <v>0.008264462809917356</v>
+        <v>0.007936507936507936</v>
       </c>
       <c r="C321">
         <v>1</v>
       </c>
       <c r="D321">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E321">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="F321">
-        <v>0.25</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G321" t="b">
         <v>1</v>
       </c>
       <c r="H321">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="J321" s="1" t="s">
         <v>591</v>
@@ -20788,25 +20788,25 @@
         <v>327</v>
       </c>
       <c r="B322">
-        <v>0.008130081300813009</v>
+        <v>0.007509386733416771</v>
       </c>
       <c r="C322">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D322">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="E322">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="F322">
-        <v>0.03000000000000003</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G322" t="b">
         <v>1</v>
       </c>
       <c r="H322">
-        <v>122</v>
+        <v>793</v>
       </c>
       <c r="J322" s="1" t="s">
         <v>592</v>
@@ -20838,25 +20838,25 @@
         <v>328</v>
       </c>
       <c r="B323">
-        <v>0.007936507936507936</v>
+        <v>0.007462686567164179</v>
       </c>
       <c r="C323">
         <v>1</v>
       </c>
       <c r="D323">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E323">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="F323">
-        <v>0.07999999999999996</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G323" t="b">
         <v>1</v>
       </c>
       <c r="H323">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="J323" s="1" t="s">
         <v>593</v>
@@ -20888,25 +20888,25 @@
         <v>329</v>
       </c>
       <c r="B324">
-        <v>0.007509386733416771</v>
+        <v>0.007391763463569166</v>
       </c>
       <c r="C324">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D324">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="E324">
-        <v>0.92</v>
+        <v>0.75</v>
       </c>
       <c r="F324">
-        <v>0.07999999999999996</v>
+        <v>0.25</v>
       </c>
       <c r="G324" t="b">
         <v>1</v>
       </c>
       <c r="H324">
-        <v>793</v>
+        <v>940</v>
       </c>
       <c r="J324" s="1" t="s">
         <v>594</v>
@@ -20938,25 +20938,25 @@
         <v>330</v>
       </c>
       <c r="B325">
-        <v>0.007462686567164179</v>
+        <v>0.006779661016949152</v>
       </c>
       <c r="C325">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D325">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E325">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F325">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G325" t="b">
         <v>1</v>
       </c>
       <c r="H325">
-        <v>133</v>
+        <v>293</v>
       </c>
       <c r="J325" s="1" t="s">
         <v>595</v>
@@ -20988,25 +20988,25 @@
         <v>331</v>
       </c>
       <c r="B326">
-        <v>0.007391763463569166</v>
+        <v>0.006349206349206349</v>
       </c>
       <c r="C326">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D326">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E326">
-        <v>0.75</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F326">
-        <v>0.25</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G326" t="b">
         <v>1</v>
       </c>
       <c r="H326">
-        <v>940</v>
+        <v>313</v>
       </c>
       <c r="J326" s="1" t="s">
         <v>596</v>
@@ -21038,25 +21038,25 @@
         <v>332</v>
       </c>
       <c r="B327">
-        <v>0.006779661016949152</v>
+        <v>0.006337135614702154</v>
       </c>
       <c r="C327">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D327">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="E327">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F327">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G327" t="b">
         <v>1</v>
       </c>
       <c r="H327">
-        <v>293</v>
+        <v>784</v>
       </c>
       <c r="J327" s="1" t="s">
         <v>597</v>
@@ -21088,28 +21088,28 @@
         <v>333</v>
       </c>
       <c r="B328">
-        <v>0.006349206349206349</v>
+        <v>0.006024096385542169</v>
       </c>
       <c r="C328">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D328">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E328">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F328">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G328" t="b">
         <v>1</v>
       </c>
       <c r="H328">
-        <v>313</v>
+        <v>165</v>
       </c>
       <c r="J328" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K328">
         <v>0.25</v>
@@ -21138,25 +21138,25 @@
         <v>334</v>
       </c>
       <c r="B329">
-        <v>0.006337135614702154</v>
+        <v>0.00554016620498615</v>
       </c>
       <c r="C329">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D329">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="E329">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F329">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G329" t="b">
         <v>1</v>
       </c>
       <c r="H329">
-        <v>784</v>
+        <v>359</v>
       </c>
       <c r="J329" s="1" t="s">
         <v>598</v>
@@ -21188,25 +21188,25 @@
         <v>335</v>
       </c>
       <c r="B330">
-        <v>0.006024096385542169</v>
+        <v>0.005235602094240838</v>
       </c>
       <c r="C330">
         <v>1</v>
       </c>
       <c r="D330">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E330">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F330">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G330" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H330">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="J330" s="1" t="s">
         <v>111</v>
@@ -21238,25 +21238,25 @@
         <v>336</v>
       </c>
       <c r="B331">
-        <v>0.00554016620498615</v>
+        <v>0.005154639175257732</v>
       </c>
       <c r="C331">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D331">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="E331">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F331">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G331" t="b">
         <v>1</v>
       </c>
       <c r="H331">
-        <v>359</v>
+        <v>193</v>
       </c>
       <c r="J331" s="1" t="s">
         <v>599</v>
@@ -21288,25 +21288,25 @@
         <v>337</v>
       </c>
       <c r="B332">
-        <v>0.005235602094240838</v>
+        <v>0.005025125628140704</v>
       </c>
       <c r="C332">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D332">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="E332">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F332">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G332" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H332">
-        <v>190</v>
+        <v>594</v>
       </c>
       <c r="J332" s="1" t="s">
         <v>600</v>
@@ -21338,25 +21338,25 @@
         <v>338</v>
       </c>
       <c r="B333">
-        <v>0.005154639175257732</v>
+        <v>0.004739336492890996</v>
       </c>
       <c r="C333">
         <v>1</v>
       </c>
       <c r="D333">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E333">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F333">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G333" t="b">
         <v>1</v>
       </c>
       <c r="H333">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="J333" s="1" t="s">
         <v>601</v>
@@ -21388,25 +21388,25 @@
         <v>339</v>
       </c>
       <c r="B334">
-        <v>0.005025125628140704</v>
+        <v>0.004641567818463125</v>
       </c>
       <c r="C334">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D334">
-        <v>56</v>
+        <v>213</v>
       </c>
       <c r="E334">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F334">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G334" t="b">
         <v>1</v>
       </c>
       <c r="H334">
-        <v>594</v>
+        <v>1930</v>
       </c>
       <c r="J334" s="1" t="s">
         <v>602</v>
@@ -21438,28 +21438,28 @@
         <v>340</v>
       </c>
       <c r="B335">
-        <v>0.004739336492890996</v>
+        <v>0.003928571428571429</v>
       </c>
       <c r="C335">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D335">
-        <v>17</v>
+        <v>318</v>
       </c>
       <c r="E335">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F335">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G335" t="b">
         <v>1</v>
       </c>
       <c r="H335">
-        <v>210</v>
+        <v>2789</v>
       </c>
       <c r="J335" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K335">
         <v>0.25</v>
@@ -21488,25 +21488,25 @@
         <v>341</v>
       </c>
       <c r="B336">
-        <v>0.004641567818463125</v>
+        <v>0.003003003003003003</v>
       </c>
       <c r="C336">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D336">
-        <v>213</v>
+        <v>86</v>
       </c>
       <c r="E336">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="F336">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G336" t="b">
         <v>1</v>
       </c>
       <c r="H336">
-        <v>1930</v>
+        <v>332</v>
       </c>
       <c r="J336" s="1" t="s">
         <v>603</v>
@@ -21538,25 +21538,25 @@
         <v>342</v>
       </c>
       <c r="B337">
-        <v>0.003928571428571429</v>
+        <v>0.002824858757062147</v>
       </c>
       <c r="C337">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D337">
-        <v>318</v>
+        <v>7</v>
       </c>
       <c r="E337">
-        <v>0.97</v>
+        <v>0.86</v>
       </c>
       <c r="F337">
-        <v>0.03000000000000003</v>
+        <v>0.14</v>
       </c>
       <c r="G337" t="b">
         <v>1</v>
       </c>
       <c r="H337">
-        <v>2789</v>
+        <v>353</v>
       </c>
       <c r="J337" s="1" t="s">
         <v>604</v>
@@ -21588,25 +21588,25 @@
         <v>343</v>
       </c>
       <c r="B338">
-        <v>0.003003003003003003</v>
+        <v>0.00230566534914361</v>
       </c>
       <c r="C338">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D338">
-        <v>86</v>
+        <v>172</v>
       </c>
       <c r="E338">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="F338">
-        <v>0.01000000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G338" t="b">
         <v>1</v>
       </c>
       <c r="H338">
-        <v>332</v>
+        <v>3029</v>
       </c>
       <c r="J338" s="1" t="s">
         <v>605</v>
@@ -21638,25 +21638,25 @@
         <v>344</v>
       </c>
       <c r="B339">
-        <v>0.002824858757062147</v>
+        <v>0.001912045889101338</v>
       </c>
       <c r="C339">
         <v>1</v>
       </c>
       <c r="D339">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="E339">
-        <v>0.86</v>
+        <v>0.98</v>
       </c>
       <c r="F339">
-        <v>0.14</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G339" t="b">
         <v>1</v>
       </c>
       <c r="H339">
-        <v>353</v>
+        <v>522</v>
       </c>
       <c r="J339" s="1" t="s">
         <v>606</v>
@@ -21688,13 +21688,13 @@
         <v>345</v>
       </c>
       <c r="B340">
-        <v>0.00230566534914361</v>
+        <v>0.001806684733514002</v>
       </c>
       <c r="C340">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D340">
-        <v>172</v>
+        <v>56</v>
       </c>
       <c r="E340">
         <v>0.96</v>
@@ -21706,7 +21706,7 @@
         <v>1</v>
       </c>
       <c r="H340">
-        <v>3029</v>
+        <v>1105</v>
       </c>
       <c r="J340" s="1" t="s">
         <v>607</v>
@@ -21738,25 +21738,25 @@
         <v>346</v>
       </c>
       <c r="B341">
-        <v>0.001912045889101338</v>
+        <v>0.001242236024844721</v>
       </c>
       <c r="C341">
         <v>1</v>
       </c>
       <c r="D341">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="E341">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="F341">
-        <v>0.02000000000000002</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G341" t="b">
         <v>1</v>
       </c>
       <c r="H341">
-        <v>522</v>
+        <v>804</v>
       </c>
       <c r="J341" s="1" t="s">
         <v>608</v>
@@ -21784,30 +21784,6 @@
       </c>
     </row>
     <row r="342" spans="1:17">
-      <c r="A342" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B342">
-        <v>0.001806684733514002</v>
-      </c>
-      <c r="C342">
-        <v>2</v>
-      </c>
-      <c r="D342">
-        <v>56</v>
-      </c>
-      <c r="E342">
-        <v>0.96</v>
-      </c>
-      <c r="F342">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="G342" t="b">
-        <v>1</v>
-      </c>
-      <c r="H342">
-        <v>1105</v>
-      </c>
       <c r="J342" s="1" t="s">
         <v>609</v>
       </c>
@@ -21834,30 +21810,6 @@
       </c>
     </row>
     <row r="343" spans="1:17">
-      <c r="A343" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="B343">
-        <v>0.001242236024844721</v>
-      </c>
-      <c r="C343">
-        <v>1</v>
-      </c>
-      <c r="D343">
-        <v>97</v>
-      </c>
-      <c r="E343">
-        <v>0.99</v>
-      </c>
-      <c r="F343">
-        <v>0.01000000000000001</v>
-      </c>
-      <c r="G343" t="b">
-        <v>1</v>
-      </c>
-      <c r="H343">
-        <v>804</v>
-      </c>
       <c r="J343" s="1" t="s">
         <v>610</v>
       </c>
@@ -22457,7 +22409,7 @@
     </row>
     <row r="366" spans="10:17">
       <c r="J366" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K366">
         <v>0.2352941176470588</v>
@@ -22483,7 +22435,7 @@
     </row>
     <row r="367" spans="10:17">
       <c r="J367" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K367">
         <v>0.2352941176470588</v>
@@ -22613,7 +22565,7 @@
     </row>
     <row r="372" spans="10:17">
       <c r="J372" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K372">
         <v>0.2307692307692308</v>
@@ -22639,7 +22591,7 @@
     </row>
     <row r="373" spans="10:17">
       <c r="J373" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K373">
         <v>0.2307692307692308</v>
@@ -22769,7 +22721,7 @@
     </row>
     <row r="378" spans="10:17">
       <c r="J378" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="K378">
         <v>0.2278481012658228</v>
@@ -22795,7 +22747,7 @@
     </row>
     <row r="379" spans="10:17">
       <c r="J379" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K379">
         <v>0.2253521126760563</v>
@@ -23341,7 +23293,7 @@
     </row>
     <row r="400" spans="10:17">
       <c r="J400" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K400">
         <v>0.2206572769953052</v>
@@ -23367,7 +23319,7 @@
     </row>
     <row r="401" spans="10:17">
       <c r="J401" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K401">
         <v>0.2173913043478261</v>
@@ -23393,7 +23345,7 @@
     </row>
     <row r="402" spans="10:17">
       <c r="J402" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K402">
         <v>0.2153846153846154</v>
@@ -23419,7 +23371,7 @@
     </row>
     <row r="403" spans="10:17">
       <c r="J403" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K403">
         <v>0.2142857142857143</v>
@@ -23445,7 +23397,7 @@
     </row>
     <row r="404" spans="10:17">
       <c r="J404" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K404">
         <v>0.2142857142857143</v>
@@ -23627,7 +23579,7 @@
     </row>
     <row r="411" spans="10:17">
       <c r="J411" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K411">
         <v>0.2115384615384615</v>
@@ -23653,7 +23605,7 @@
     </row>
     <row r="412" spans="10:17">
       <c r="J412" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K412">
         <v>0.2105263157894737</v>
@@ -23705,7 +23657,7 @@
     </row>
     <row r="414" spans="10:17">
       <c r="J414" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K414">
         <v>0.2101910828025478</v>
@@ -23783,7 +23735,7 @@
     </row>
     <row r="417" spans="10:17">
       <c r="J417" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K417">
         <v>0.2038369304556355</v>
@@ -24667,7 +24619,7 @@
     </row>
     <row r="451" spans="10:17">
       <c r="J451" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K451">
         <v>0.1875</v>
@@ -24693,7 +24645,7 @@
     </row>
     <row r="452" spans="10:17">
       <c r="J452" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K452">
         <v>0.1864406779661017</v>
@@ -24745,7 +24697,7 @@
     </row>
     <row r="454" spans="10:17">
       <c r="J454" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K454">
         <v>0.1842105263157895</v>
@@ -24771,7 +24723,7 @@
     </row>
     <row r="455" spans="10:17">
       <c r="J455" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K455">
         <v>0.1818181818181818</v>
@@ -25109,7 +25061,7 @@
     </row>
     <row r="468" spans="10:17">
       <c r="J468" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K468">
         <v>0.1804511278195489</v>
@@ -25135,7 +25087,7 @@
     </row>
     <row r="469" spans="10:17">
       <c r="J469" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="K469">
         <v>0.1790123456790123</v>
@@ -25187,7 +25139,7 @@
     </row>
     <row r="471" spans="10:17">
       <c r="J471" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K471">
         <v>0.1774193548387097</v>
@@ -25265,7 +25217,7 @@
     </row>
     <row r="474" spans="10:17">
       <c r="J474" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="K474">
         <v>0.1764705882352941</v>
@@ -25447,7 +25399,7 @@
     </row>
     <row r="481" spans="10:17">
       <c r="J481" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K481">
         <v>0.1739130434782609</v>
@@ -25473,7 +25425,7 @@
     </row>
     <row r="482" spans="10:17">
       <c r="J482" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="K482">
         <v>0.1692307692307692</v>
@@ -27345,7 +27297,7 @@
     </row>
     <row r="554" spans="10:17">
       <c r="J554" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K554">
         <v>0.1607142857142857</v>
@@ -27475,7 +27427,7 @@
     </row>
     <row r="559" spans="10:17">
       <c r="J559" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K559">
         <v>0.1578947368421053</v>
@@ -27943,7 +27895,7 @@
     </row>
     <row r="577" spans="10:17">
       <c r="J577" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K577">
         <v>0.15</v>
@@ -28437,7 +28389,7 @@
     </row>
     <row r="596" spans="10:17">
       <c r="J596" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K596">
         <v>0.1428571428571428</v>
@@ -28775,7 +28727,7 @@
     </row>
     <row r="609" spans="10:17">
       <c r="J609" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K609">
         <v>0.1428571428571428</v>
@@ -29035,7 +28987,7 @@
     </row>
     <row r="619" spans="10:17">
       <c r="J619" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K619">
         <v>0.1428571428571428</v>
@@ -29061,7 +29013,7 @@
     </row>
     <row r="620" spans="10:17">
       <c r="J620" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K620">
         <v>0.1428571428571428</v>
@@ -29919,7 +29871,7 @@
     </row>
     <row r="653" spans="10:17">
       <c r="J653" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K653">
         <v>0.1403508771929824</v>
@@ -30101,7 +30053,7 @@
     </row>
     <row r="660" spans="10:17">
       <c r="J660" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K660">
         <v>0.1363636363636364</v>
@@ -30127,7 +30079,7 @@
     </row>
     <row r="661" spans="10:17">
       <c r="J661" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K661">
         <v>0.1351351351351351</v>
@@ -30179,7 +30131,7 @@
     </row>
     <row r="663" spans="10:17">
       <c r="J663" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K663">
         <v>0.1333333333333333</v>
@@ -30257,7 +30209,7 @@
     </row>
     <row r="666" spans="10:17">
       <c r="J666" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K666">
         <v>0.1333333333333333</v>
@@ -30387,7 +30339,7 @@
     </row>
     <row r="671" spans="10:17">
       <c r="J671" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K671">
         <v>0.1333333333333333</v>
@@ -30413,7 +30365,7 @@
     </row>
     <row r="672" spans="10:17">
       <c r="J672" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K672">
         <v>0.1328502415458937</v>
@@ -30439,7 +30391,7 @@
     </row>
     <row r="673" spans="10:17">
       <c r="J673" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K673">
         <v>0.1304347826086956</v>
@@ -30647,7 +30599,7 @@
     </row>
     <row r="681" spans="10:17">
       <c r="J681" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K681">
         <v>0.1276595744680851</v>
@@ -30673,7 +30625,7 @@
     </row>
     <row r="682" spans="10:17">
       <c r="J682" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K682">
         <v>0.1276595744680851</v>
@@ -30699,7 +30651,7 @@
     </row>
     <row r="683" spans="10:17">
       <c r="J683" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K683">
         <v>0.1272727272727273</v>
@@ -30725,7 +30677,7 @@
     </row>
     <row r="684" spans="10:17">
       <c r="J684" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K684">
         <v>0.1271186440677966</v>
@@ -32389,7 +32341,7 @@
     </row>
     <row r="748" spans="10:17">
       <c r="J748" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K748">
         <v>0.1219512195121951</v>
@@ -32493,7 +32445,7 @@
     </row>
     <row r="752" spans="10:17">
       <c r="J752" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K752">
         <v>0.12</v>
@@ -32571,7 +32523,7 @@
     </row>
     <row r="755" spans="10:17">
       <c r="J755" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K755">
         <v>0.12</v>
@@ -32623,7 +32575,7 @@
     </row>
     <row r="757" spans="10:17">
       <c r="J757" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K757">
         <v>0.1191489361702128</v>
@@ -32649,7 +32601,7 @@
     </row>
     <row r="758" spans="10:17">
       <c r="J758" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K758">
         <v>0.1181102362204724</v>
@@ -32675,7 +32627,7 @@
     </row>
     <row r="759" spans="10:17">
       <c r="J759" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K759">
         <v>0.1176470588235294</v>
@@ -32883,7 +32835,7 @@
     </row>
     <row r="767" spans="10:17">
       <c r="J767" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K767">
         <v>0.1153846153846154</v>
@@ -32935,7 +32887,7 @@
     </row>
     <row r="769" spans="10:17">
       <c r="J769" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K769">
         <v>0.1136363636363636</v>
@@ -34391,7 +34343,7 @@
     </row>
     <row r="825" spans="10:17">
       <c r="J825" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K825">
         <v>0.1076923076923077</v>
@@ -34443,7 +34395,7 @@
     </row>
     <row r="827" spans="10:17">
       <c r="J827" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="K827">
         <v>0.1066666666666667</v>
@@ -34521,7 +34473,7 @@
     </row>
     <row r="830" spans="10:17">
       <c r="J830" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K830">
         <v>0.1052631578947368</v>
@@ -34859,7 +34811,7 @@
     </row>
     <row r="843" spans="10:17">
       <c r="J843" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K843">
         <v>0.103448275862069</v>
@@ -34989,7 +34941,7 @@
     </row>
     <row r="848" spans="10:17">
       <c r="J848" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K848">
         <v>0.1032608695652174</v>
@@ -35119,7 +35071,7 @@
     </row>
     <row r="853" spans="10:17">
       <c r="J853" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K853">
         <v>0.1020408163265306</v>
@@ -35353,7 +35305,7 @@
     </row>
     <row r="862" spans="10:17">
       <c r="J862" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K862">
         <v>0.1</v>
@@ -35561,7 +35513,7 @@
     </row>
     <row r="870" spans="10:17">
       <c r="J870" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K870">
         <v>0.1</v>
@@ -35977,7 +35929,7 @@
     </row>
     <row r="886" spans="10:17">
       <c r="J886" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K886">
         <v>0.09916020671834626</v>
@@ -36003,7 +35955,7 @@
     </row>
     <row r="887" spans="10:17">
       <c r="J887" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K887">
         <v>0.0990990990990991</v>
@@ -36029,7 +35981,7 @@
     </row>
     <row r="888" spans="10:17">
       <c r="J888" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="K888">
         <v>0.09846153846153846</v>
@@ -36055,7 +36007,7 @@
     </row>
     <row r="889" spans="10:17">
       <c r="J889" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="K889">
         <v>0.09813084112149532</v>
@@ -36081,7 +36033,7 @@
     </row>
     <row r="890" spans="10:17">
       <c r="J890" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K890">
         <v>0.09798270893371758</v>
@@ -36107,7 +36059,7 @@
     </row>
     <row r="891" spans="10:17">
       <c r="J891" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K891">
         <v>0.09677419354838709</v>
@@ -36185,7 +36137,7 @@
     </row>
     <row r="894" spans="10:17">
       <c r="J894" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K894">
         <v>0.09677419354838709</v>
@@ -36211,7 +36163,7 @@
     </row>
     <row r="895" spans="10:17">
       <c r="J895" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="K895">
         <v>0.09559512652296158</v>
@@ -36263,7 +36215,7 @@
     </row>
     <row r="897" spans="10:17">
       <c r="J897" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K897">
         <v>0.09523809523809523</v>
@@ -36575,7 +36527,7 @@
     </row>
     <row r="909" spans="10:17">
       <c r="J909" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K909">
         <v>0.09090909090909091</v>
@@ -36783,7 +36735,7 @@
     </row>
     <row r="917" spans="10:17">
       <c r="J917" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K917">
         <v>0.09090909090909091</v>
@@ -37147,7 +37099,7 @@
     </row>
     <row r="931" spans="10:17">
       <c r="J931" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K931">
         <v>0.09090909090909091</v>
@@ -37693,7 +37645,7 @@
     </row>
     <row r="952" spans="10:17">
       <c r="J952" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K952">
         <v>0.08823529411764706</v>
@@ -37823,7 +37775,7 @@
     </row>
     <row r="957" spans="10:17">
       <c r="J957" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="K957">
         <v>0.08759124087591241</v>
@@ -37849,7 +37801,7 @@
     </row>
     <row r="958" spans="10:17">
       <c r="J958" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K958">
         <v>0.0873015873015873</v>
@@ -38161,7 +38113,7 @@
     </row>
     <row r="970" spans="10:17">
       <c r="J970" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K970">
         <v>0.0851063829787234</v>
@@ -38213,7 +38165,7 @@
     </row>
     <row r="972" spans="10:17">
       <c r="J972" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K972">
         <v>0.08450704225352113</v>
@@ -38265,7 +38217,7 @@
     </row>
     <row r="974" spans="10:17">
       <c r="J974" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K974">
         <v>0.08333333333333333</v>
@@ -38343,7 +38295,7 @@
     </row>
     <row r="977" spans="10:17">
       <c r="J977" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K977">
         <v>0.08333333333333333</v>
@@ -38629,7 +38581,7 @@
     </row>
     <row r="988" spans="10:17">
       <c r="J988" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K988">
         <v>0.08333333333333333</v>
@@ -38941,7 +38893,7 @@
     </row>
     <row r="1000" spans="10:17">
       <c r="J1000" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K1000">
         <v>0.08191653786707882</v>
@@ -38967,7 +38919,7 @@
     </row>
     <row r="1001" spans="10:17">
       <c r="J1001" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K1001">
         <v>0.08163265306122448</v>
@@ -39097,7 +39049,7 @@
     </row>
     <row r="1006" spans="10:17">
       <c r="J1006" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K1006">
         <v>0.08024691358024691</v>
@@ -39279,7 +39231,7 @@
     </row>
     <row r="1013" spans="10:17">
       <c r="J1013" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K1013">
         <v>0.07897793263646923</v>
@@ -39383,7 +39335,7 @@
     </row>
     <row r="1017" spans="10:17">
       <c r="J1017" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="K1017">
         <v>0.07773851590106007</v>
@@ -39565,7 +39517,7 @@
     </row>
     <row r="1024" spans="10:17">
       <c r="J1024" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K1024">
         <v>0.07692307692307693</v>
@@ -39617,7 +39569,7 @@
     </row>
     <row r="1026" spans="10:17">
       <c r="J1026" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K1026">
         <v>0.07692307692307693</v>
@@ -39799,7 +39751,7 @@
     </row>
     <row r="1033" spans="10:17">
       <c r="J1033" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K1033">
         <v>0.07692307692307693</v>
@@ -40007,7 +39959,7 @@
     </row>
     <row r="1041" spans="10:17">
       <c r="J1041" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K1041">
         <v>0.07692307692307693</v>
@@ -40761,7 +40713,7 @@
     </row>
     <row r="1070" spans="10:17">
       <c r="J1070" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K1070">
         <v>0.07142857142857142</v>
@@ -40787,7 +40739,7 @@
     </row>
     <row r="1071" spans="10:17">
       <c r="J1071" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K1071">
         <v>0.07142857142857142</v>
@@ -41151,7 +41103,7 @@
     </row>
     <row r="1085" spans="10:17">
       <c r="J1085" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K1085">
         <v>0.07079646017699115</v>
@@ -41177,7 +41129,7 @@
     </row>
     <row r="1086" spans="10:17">
       <c r="J1086" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K1086">
         <v>0.07000000000000001</v>
@@ -41255,7 +41207,7 @@
     </row>
     <row r="1089" spans="10:17">
       <c r="J1089" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K1089">
         <v>0.06896551724137931</v>
@@ -41333,7 +41285,7 @@
     </row>
     <row r="1092" spans="10:17">
       <c r="J1092" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K1092">
         <v>0.06666666666666667</v>
@@ -41697,7 +41649,7 @@
     </row>
     <row r="1106" spans="10:17">
       <c r="J1106" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K1106">
         <v>0.06666666666666667</v>
@@ -42243,7 +42195,7 @@
     </row>
     <row r="1127" spans="10:17">
       <c r="J1127" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K1127">
         <v>0.06060606060606061</v>
@@ -42269,7 +42221,7 @@
     </row>
     <row r="1128" spans="10:17">
       <c r="J1128" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K1128">
         <v>0.06060606060606061</v>
@@ -42295,7 +42247,7 @@
     </row>
     <row r="1129" spans="10:17">
       <c r="J1129" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K1129">
         <v>0.06060606060606061</v>
@@ -42867,7 +42819,7 @@
     </row>
     <row r="1151" spans="10:17">
       <c r="J1151" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K1151">
         <v>0.05681818181818182</v>
@@ -43205,7 +43157,7 @@
     </row>
     <row r="1164" spans="10:17">
       <c r="J1164" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K1164">
         <v>0.05405405405405406</v>
@@ -43283,7 +43235,7 @@
     </row>
     <row r="1167" spans="10:17">
       <c r="J1167" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K1167">
         <v>0.05357142857142857</v>
@@ -43335,7 +43287,7 @@
     </row>
     <row r="1169" spans="10:17">
       <c r="J1169" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K1169">
         <v>0.05263157894736842</v>
@@ -43517,7 +43469,7 @@
     </row>
     <row r="1176" spans="10:17">
       <c r="J1176" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K1176">
         <v>0.05172413793103448</v>
@@ -43543,7 +43495,7 @@
     </row>
     <row r="1177" spans="10:17">
       <c r="J1177" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="K1177">
         <v>0.05165936130244208</v>
@@ -43647,7 +43599,7 @@
     </row>
     <row r="1181" spans="10:17">
       <c r="J1181" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K1181">
         <v>0.05063291139240506</v>
@@ -43959,7 +43911,7 @@
     </row>
     <row r="1193" spans="10:17">
       <c r="J1193" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K1193">
         <v>0.04819277108433735</v>
@@ -44193,7 +44145,7 @@
     </row>
     <row r="1202" spans="10:17">
       <c r="J1202" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="K1202">
         <v>0.04659188955996549</v>
@@ -45207,7 +45159,7 @@
     </row>
     <row r="1241" spans="10:17">
       <c r="J1241" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K1241">
         <v>0.03846153846153846</v>
@@ -45337,7 +45289,7 @@
     </row>
     <row r="1246" spans="10:17">
       <c r="J1246" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K1246">
         <v>0.03703703703703703</v>
@@ -45545,7 +45497,7 @@
     </row>
     <row r="1254" spans="10:17">
       <c r="J1254" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K1254">
         <v>0.03448275862068965</v>
@@ -45623,7 +45575,7 @@
     </row>
     <row r="1257" spans="10:17">
       <c r="J1257" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K1257">
         <v>0.03296703296703297</v>
@@ -45883,7 +45835,7 @@
     </row>
     <row r="1267" spans="10:17">
       <c r="J1267" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K1267">
         <v>0.03076923076923077</v>
@@ -46169,7 +46121,7 @@
     </row>
     <row r="1278" spans="10:17">
       <c r="J1278" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K1278">
         <v>0.02857142857142857</v>
@@ -46195,7 +46147,7 @@
     </row>
     <row r="1279" spans="10:17">
       <c r="J1279" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K1279">
         <v>0.02803738317757009</v>
@@ -46481,7 +46433,7 @@
     </row>
     <row r="1290" spans="10:17">
       <c r="J1290" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K1290">
         <v>0.02564102564102564</v>
@@ -46559,7 +46511,7 @@
     </row>
     <row r="1293" spans="10:17">
       <c r="J1293" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K1293">
         <v>0.02439024390243903</v>
@@ -46897,7 +46849,7 @@
     </row>
     <row r="1306" spans="10:17">
       <c r="J1306" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K1306">
         <v>0.0218522372528616</v>
@@ -47079,7 +47031,7 @@
     </row>
     <row r="1313" spans="10:17">
       <c r="J1313" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K1313">
         <v>0.0202020202020202</v>
@@ -47183,7 +47135,7 @@
     </row>
     <row r="1317" spans="10:17">
       <c r="J1317" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K1317">
         <v>0.0196078431372549</v>
@@ -47287,7 +47239,7 @@
     </row>
     <row r="1321" spans="10:17">
       <c r="J1321" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K1321">
         <v>0.01671309192200557</v>
@@ -47547,7 +47499,7 @@
     </row>
     <row r="1331" spans="10:17">
       <c r="J1331" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="K1331">
         <v>0.01</v>
